--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_ACTUAL\CajaPiuraCMAC2021\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -125,21 +125,12 @@
     <t>22114387</t>
   </si>
   <si>
-    <t>080-01-9055531</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>06/12/2021</t>
-  </si>
-  <si>
-    <t>07/12/2021</t>
-  </si>
-  <si>
     <t>Número Informe</t>
   </si>
   <si>
@@ -152,10 +143,19 @@
     <t>Número Cuotas</t>
   </si>
   <si>
-    <t>4873737</t>
-  </si>
-  <si>
-    <t>4873738</t>
+    <t>080-01-0840793</t>
+  </si>
+  <si>
+    <t>13/12/2021</t>
+  </si>
+  <si>
+    <t>14/12/2021</t>
+  </si>
+  <si>
+    <t>4899837</t>
+  </si>
+  <si>
+    <t>4899838</t>
   </si>
   <si>
     <t>Se han encontrado errores en la Validacion de la Propuesta</t>
@@ -168,6 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -524,32 +525,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="53.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1">
@@ -560,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -581,13 +580,13 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -596,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
@@ -614,9 +613,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1">
+    <row r="2" spans="1:20" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -634,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
@@ -658,10 +657,10 @@
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -676,9 +675,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="7" customFormat="1">
+    <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -696,16 +695,16 @@
         <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>4</v>
@@ -720,10 +719,10 @@
         <v>14</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>28</v>

--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_ACTUAL\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Cliente</t>
   </si>
@@ -122,18 +122,9 @@
     <t>6</t>
   </si>
   <si>
-    <t>22114387</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>Número Informe</t>
-  </si>
-  <si>
     <t>Modalidad Amortización</t>
   </si>
   <si>
@@ -143,32 +134,25 @@
     <t>Número Cuotas</t>
   </si>
   <si>
-    <t>080-01-0840793</t>
-  </si>
-  <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
-    <t>4899837</t>
-  </si>
-  <si>
-    <t>4899838</t>
-  </si>
-  <si>
-    <t>Se han encontrado errores en la Validacion de la Propuesta</t>
-  </si>
-  <si>
-    <t>El Documento ha sido derivado satisfactoriamente</t>
+    <t>20570822</t>
+  </si>
+  <si>
+    <t>080-01-7781482</t>
+  </si>
+  <si>
+    <t>13/03/2022</t>
+  </si>
+  <si>
+    <t>14/03/2022</t>
+  </si>
+  <si>
+    <t>Vacio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -523,35 +507,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -579,43 +565,49 @@
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="7" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -633,49 +625,41 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1">
+    <row r="3" spans="1:22" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -703,38 +687,30 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
+++ b/target/DatosExcel/DatosCreditoEmpresarialReprogramacionMismoPagare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Cliente</t>
   </si>
@@ -119,9 +119,6 @@
     <t>080-01-9053891</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>Número Cuotas</t>
   </si>
   <si>
-    <t>20570822</t>
-  </si>
-  <si>
-    <t>080-01-7781482</t>
-  </si>
-  <si>
     <t>13/03/2022</t>
   </si>
   <si>
@@ -147,6 +138,39 @@
   </si>
   <si>
     <t>Vacio</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24296385</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>080-01-6980011</t>
+  </si>
+  <si>
+    <t>4978874</t>
+  </si>
+  <si>
+    <t>4978875</t>
+  </si>
+  <si>
+    <t>El Documento ha sido derivado satisfactoriamente</t>
+  </si>
+  <si>
+    <t>Se han encontrado excepciones para registrar comentarios</t>
   </si>
 </sst>
 </file>
@@ -507,9 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -522,19 +548,20 @@
     <col min="7" max="7" width="22" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="41.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1">
@@ -545,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -566,31 +593,31 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>25</v>
@@ -607,7 +634,7 @@
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -625,38 +652,52 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2"/>
+        <v>43</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
       <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1">
@@ -688,31 +729,46 @@
         <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3"/>
+        <v>42</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
     </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
